--- a/public/lte/excel/products.xlsx
+++ b/public/lte/excel/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">product_name</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">images</t>
   </si>
   <si>
-    <t xml:space="preserve">colors</t>
-  </si>
-  <si>
     <t xml:space="preserve">price</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">img02.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black</t>
   </si>
   <si>
     <t xml:space="preserve">2020-04-08 23:25:43</t>
@@ -180,7 +174,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -216,38 +210,32 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/public/lte/excel/products.xlsx
+++ b/public/lte/excel/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">product_name</t>
   </si>
@@ -34,34 +34,16 @@
     <t xml:space="preserve">configuration</t>
   </si>
   <si>
-    <t xml:space="preserve">images</t>
-  </si>
-  <si>
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve">created_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaaaaaaaaaaaaa111</t>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;-Tangle free cable -Brand: Mi -Model Name:Mi Earphones Basic&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;-Brand: Boat -Model: BassHeads 100 -Item Weight: 31.8 g -Product Dimensions: 120 x 0.1 x 0.2 cm&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">img02.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-08 23:25:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-21 23:25:50</t>
   </si>
 </sst>
 </file>
@@ -103,12 +85,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009598"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,8 +133,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -163,6 +155,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF009598"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -174,13 +226,18 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:H2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.53"/>
   </cols>
@@ -201,41 +258,25 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
